--- a/dataset/score/daasarathi.xlsx
+++ b/dataset/score/daasarathi.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J3" t="n">
         <v>0.75</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J4" t="n">
         <v>0.75</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J5" t="n">
         <v>0.75</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.45</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="G8" t="n">
         <v>-0.25</v>
@@ -818,7 +818,7 @@
         <v>-0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J8" t="n">
         <v>0.75</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9404761904761905</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J12" t="n">
         <v>0.75</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J14" t="n">
         <v>0.5</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
         <v>0.75</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J32" t="n">
         <v>0.75</v>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J34" t="n">
         <v>0.75</v>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="G35" t="n">
         <v>-0.25</v>
@@ -2115,7 +2115,7 @@
         <v>-0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="J35" t="n">
         <v>0.25</v>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.3757142857142857</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>-0.05000000000000004</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J36" t="n">
         <v>0.25</v>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2211,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J37" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J44" t="n">
         <v>0.75</v>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0.75</v>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="G52" t="n">
         <v>-0.25</v>
@@ -2932,7 +2932,7 @@
         <v>-0.25</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="J52" t="n">
         <v>0.5</v>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.4675</v>
+        <v>0.4760714285714286</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2980,10 +2980,10 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J53" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K53" t="n">
         <v>0.5</v>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.945</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J54" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8975</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3124,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="G60" t="n">
         <v>-0.25</v>
@@ -3317,7 +3317,7 @@
         <v>-0.25</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="J60" t="n">
         <v>0.5</v>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
         <v>0.75</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J63" t="n">
         <v>0.75</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3509,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.3975</v>
+        <v>0.1571428571428572</v>
       </c>
       <c r="G65" t="n">
         <v>-0.25</v>
@@ -3558,7 +3558,7 @@
         <v>-0.25</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9875</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J65" t="n">
         <v>0.5</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.04750000000000001</v>
       </c>
       <c r="G68" t="n">
         <v>-0.25</v>
@@ -3703,7 +3703,7 @@
         <v>-0.2625</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4625</v>
+        <v>0.25</v>
       </c>
       <c r="J68" t="n">
         <v>0.25</v>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3991,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4183,7 +4183,7 @@
         <v>-0.01190476190476186</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J78" t="n">
         <v>0.25</v>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4567,10 +4567,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J89" t="n">
         <v>0.5</v>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J91" t="n">
         <v>0.75</v>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.3475</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G92" t="n">
         <v>-0.25</v>
@@ -4856,7 +4856,7 @@
         <v>-0.25</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9875</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J92" t="n">
         <v>0.25</v>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.39</v>
+        <v>0.3257142857142857</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4904,7 +4904,7 @@
         <v>-0.05000000000000004</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
         <v>0.75</v>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5144,10 +5144,10 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J104" t="n">
         <v>0.5</v>

--- a/dataset/score/daasarathi.xlsx
+++ b/dataset/score/daasarathi.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,19 +809,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.2071428571428572</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2142857142857142</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2106,19 +2106,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -2154,19 +2154,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.3757142857142857</v>
+        <v>0.5257142857142857</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0.1785714285714286</v>
       </c>
       <c r="J36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0.5</v>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2214,7 +2214,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J44" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2923,19 +2923,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.15</v>
+        <v>0.95</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -2971,13 +2971,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.4760714285714286</v>
+        <v>0.6760714285714287</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0.3928571428571428</v>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3127,7 +3127,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J56" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3308,19 +3308,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3549,16 +3549,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1571428571428572</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J65" t="n">
         <v>0.5</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.04750000000000001</v>
+        <v>0.4974999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.25</v>
+        <v>0.7375</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.2625</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0.25</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4042,7 +4042,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.4404761904761905</v>
+        <v>0.6404761904761905</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.01190476190476186</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0.4642857142857143</v>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4847,19 +4847,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J92" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4895,13 +4895,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.3257142857142857</v>
+        <v>0.5257142857142857</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0.1785714285714286</v>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J98" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
@@ -5183,7 +5183,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
